--- a/workDistribution.xlsx
+++ b/workDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\SOEN287\A1\WebsiteProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0264173D-BFB8-4784-BA88-A83137EA53D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F1FA93-62AB-41F8-9419-FA732B7CC3AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB52C5C5-33A8-4ACE-8146-BCE38D49F806}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>James Elman</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>AWS Web hosting</t>
+  </si>
+  <si>
+    <t>Aisle3.html</t>
+  </si>
+  <si>
+    <t>OrderList.html</t>
   </si>
 </sst>
 </file>
@@ -166,9 +172,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,16 +490,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65A0C78-FEF0-475E-ADC4-4FBFA7079073}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -619,36 +626,36 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>19</v>
+      <c r="A21" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -656,33 +663,49 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>0</v>
       </c>
     </row>
